--- a/excel/Project Management/Project Management Dashboard.xlsx
+++ b/excel/Project Management/Project Management Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinakuzmina/Desktop/repos/analysis/excel/Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA8C84E-8ED4-DC4F-8F67-7FED9691E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97648AF-2F7B-3540-BEB3-88F648066257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="4020" windowWidth="38080" windowHeight="23560" tabRatio="664" activeTab="2" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
+    <workbookView xWindow="12800" yWindow="2240" windowWidth="38080" windowHeight="23560" tabRatio="664" activeTab="2" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#.#,,\M"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +228,17 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="17"/>
       <color theme="0"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -274,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -303,6 +308,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4837,6 +4845,10 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" horiz="1" max="100" page="10" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5147,6 +5159,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>21771</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76201</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>725713</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>381001</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Scroll Bar 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD9B5DA-A379-E9D2-BCDC-B409FC84FA94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -8829,11 +8891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827AB40-3701-514F-9CCF-DEF1B95D471A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827AB40-3701-514F-9CCF-DEF1B95D471A}">
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8851,13 +8913,13 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="16" t="str">
+      <c r="F1" s="17" t="str">
         <f>TEXT(MIN(D7:D46),"D-MMM-YY")&amp;" to "&amp;TEXT(MAX(E7:E46),"D-MMM-YY")</f>
         <v>17-Feb-20 to 13-Mar-20</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -10092,10 +10154,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Scroll Bar 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>381000</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
